--- a/BackTest/2020-01-26 BackTest FNB.xlsx
+++ b/BackTest/2020-01-26 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,17 +484,11 @@
         <v>10453395.97049999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,13 +517,15 @@
         <v>10290613.61489999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.446</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -597,9 +593,11 @@
         <v>9873555.755699994</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.362</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -893,9 +891,11 @@
         <v>8522981.865399994</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.28</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -930,9 +930,11 @@
         <v>8525645.865399994</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.29</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -967,9 +969,11 @@
         <v>8525645.865399994</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.291</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1004,9 +1008,11 @@
         <v>8526311.865399994</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.291</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1041,9 +1047,11 @@
         <v>8527643.865399994</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.292</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1078,9 +1086,11 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.293</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1115,9 +1125,11 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.346</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1152,9 +1164,11 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.346</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1263,9 +1277,11 @@
         <v>8581118.721499994</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.346</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -3446,9 +3462,11 @@
         <v>1054501.20143236</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2.299</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3520,9 +3538,11 @@
         <v>1054501.20143236</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2.299</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3557,9 +3577,11 @@
         <v>1015752.27373236</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.299</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3594,9 +3616,11 @@
         <v>893489.8413323603</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2.288</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3631,7 +3655,7 @@
         <v>815801.4683323603</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>2.287</v>
@@ -3670,7 +3694,7 @@
         <v>816215.5830323603</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>2.28</v>
@@ -3709,7 +3733,7 @@
         <v>916624.7142323602</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>2.299</v>
@@ -3748,7 +3772,7 @@
         <v>1060498.47123236</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>2.312</v>
@@ -3787,7 +3811,7 @@
         <v>1060498.47123236</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>2.339</v>
@@ -3826,9 +3850,11 @@
         <v>310498.4712323602</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2.339</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3863,9 +3889,11 @@
         <v>555581.5397323603</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2.326</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3900,9 +3928,11 @@
         <v>1146975.23413236</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.348</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3937,9 +3967,11 @@
         <v>519866.0198323602</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2.408</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -5750,16 +5782,18 @@
         <v>39766536.15517876</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
       <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
@@ -5785,11 +5819,15 @@
         <v>42013749.1315851</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5818,11 +5856,15 @@
         <v>40714447.8708851</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5851,11 +5893,15 @@
         <v>40714447.8708851</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5888,7 +5934,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5921,7 +5971,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5954,7 +6008,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5987,7 +6045,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6016,14 +6078,16 @@
         <v>35003203.2737851</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
@@ -6049,7 +6113,7 @@
         <v>34851821.7025851</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6082,7 +6146,7 @@
         <v>27741346.51065609</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6115,7 +6179,7 @@
         <v>21148704.10235609</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6148,7 +6212,7 @@
         <v>20416600.18065609</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6181,7 +6245,7 @@
         <v>16290317.29205609</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6214,7 +6278,7 @@
         <v>17161806.32505609</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6247,7 +6311,7 @@
         <v>17163637.13665609</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6280,7 +6344,7 @@
         <v>15793008.73075609</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6313,7 +6377,7 @@
         <v>15897756.08475609</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6346,7 +6410,7 @@
         <v>16570855.47765609</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6379,7 +6443,7 @@
         <v>19198172.2511797</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6412,7 +6476,7 @@
         <v>19198172.2511797</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6445,7 +6509,7 @@
         <v>16671485.4810797</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6478,7 +6542,7 @@
         <v>15236277.26567969</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6511,7 +6575,7 @@
         <v>18258100.13111821</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6544,7 +6608,7 @@
         <v>18068851.37161821</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6577,7 +6641,7 @@
         <v>18068851.37161821</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6610,7 +6674,7 @@
         <v>18008499.2413313</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6643,7 +6707,7 @@
         <v>18006105.6465313</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6676,7 +6740,7 @@
         <v>17940475.9558313</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6709,7 +6773,7 @@
         <v>17940475.9558313</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6775,7 +6839,7 @@
         <v>18408951.6224313</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6841,7 +6905,7 @@
         <v>18364087.5265313</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6874,7 +6938,7 @@
         <v>18787391.29931643</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6907,7 +6971,7 @@
         <v>18787391.29931643</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7039,7 +7103,7 @@
         <v>19214259.76190666</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7072,7 +7136,7 @@
         <v>19079121.62870666</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7105,7 +7169,7 @@
         <v>20514797.58440666</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7138,7 +7202,7 @@
         <v>18604542.58540665</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7171,7 +7235,7 @@
         <v>18751326.92920665</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7204,7 +7268,7 @@
         <v>19471908.23810665</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7237,7 +7301,7 @@
         <v>19291244.12540665</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7270,7 +7334,7 @@
         <v>19406946.87260665</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7303,7 +7367,7 @@
         <v>19928749.83890665</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7336,7 +7400,7 @@
         <v>19928749.83890665</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7369,7 +7433,7 @@
         <v>18346279.63920665</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7402,7 +7466,7 @@
         <v>17516720.03250665</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -9184,7 +9248,7 @@
         <v>14672361.05005899</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9250,7 +9314,7 @@
         <v>14798064.11860665</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9316,7 +9380,7 @@
         <v>14632929.70705432</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9349,7 +9413,7 @@
         <v>14632929.70705432</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9481,7 +9545,7 @@
         <v>14339733.31045432</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9910,7 +9974,7 @@
         <v>18594334.7468853</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9943,7 +10007,7 @@
         <v>19020421.2510853</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9976,7 +10040,7 @@
         <v>20180653.19342989</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10009,7 +10073,7 @@
         <v>21327091.1378853</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10042,7 +10106,7 @@
         <v>17039849.40344071</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10075,7 +10139,7 @@
         <v>12636571.25167169</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10108,7 +10172,7 @@
         <v>12636793.25167169</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10141,7 +10205,7 @@
         <v>4333840.465071694</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10174,7 +10238,7 @@
         <v>4341826.888371694</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10207,7 +10271,7 @@
         <v>4341826.888371694</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10240,7 +10304,7 @@
         <v>4868245.726471694</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10273,7 +10337,7 @@
         <v>4935431.676471694</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10306,7 +10370,7 @@
         <v>5122402.494571694</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10339,7 +10403,7 @@
         <v>4631984.097271694</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10372,7 +10436,7 @@
         <v>4631484.097271694</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10405,7 +10469,7 @@
         <v>4667270.442734439</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10438,7 +10502,7 @@
         <v>4659284.019434439</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10471,7 +10535,7 @@
         <v>4671053.969434439</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10504,7 +10568,7 @@
         <v>4671053.969434439</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10537,7 +10601,7 @@
         <v>4494353.470434439</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10603,7 +10667,7 @@
         <v>4484353.470434439</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10636,7 +10700,7 @@
         <v>4383853.470434439</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10669,7 +10733,7 @@
         <v>5272382.89023444</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10702,7 +10766,7 @@
         <v>5553160.21033444</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10735,7 +10799,7 @@
         <v>6793330.62653444</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10768,7 +10832,7 @@
         <v>6793330.62653444</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10801,7 +10865,7 @@
         <v>7119014.900734439</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10834,7 +10898,7 @@
         <v>7118514.900734439</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10900,7 +10964,7 @@
         <v>6533128.567034439</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11197,7 +11261,7 @@
         <v>1725445.380504329</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11230,7 +11294,7 @@
         <v>2805690.143604329</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11263,7 +11327,7 @@
         <v>2805690.143604329</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11296,7 +11360,7 @@
         <v>2866809.361348479</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11329,7 +11393,7 @@
         <v>2866809.361348479</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11362,7 +11426,7 @@
         <v>2856809.361348479</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11395,7 +11459,7 @@
         <v>2840284.771948479</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11428,7 +11492,7 @@
         <v>2838584.771948479</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11461,7 +11525,7 @@
         <v>1554219.442848479</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11494,7 +11558,7 @@
         <v>809982.1558484791</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11527,7 +11591,7 @@
         <v>809982.1558484791</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11560,7 +11624,7 @@
         <v>809982.1558484791</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11593,7 +11657,7 @@
         <v>-286620.0851515208</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11626,7 +11690,7 @@
         <v>-292467.0851515208</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11659,7 +11723,7 @@
         <v>383124.0079484793</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11692,7 +11756,7 @@
         <v>625532.8199337813</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11923,7 +11987,7 @@
         <v>1162562.230533781</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11956,7 +12020,7 @@
         <v>899123.6359337813</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12121,7 +12185,7 @@
         <v>-2715396.593766219</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12154,7 +12218,7 @@
         <v>-6715396.593766218</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12187,7 +12251,7 @@
         <v>-9385865.013166219</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -16774,7 +16838,7 @@
         <v>-10328602.65641073</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16807,7 +16871,7 @@
         <v>-7395708.420683846</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16840,7 +16904,7 @@
         <v>-8318837.663783845</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16873,7 +16937,7 @@
         <v>-8388415.240283846</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16906,7 +16970,7 @@
         <v>-10068319.00948385</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16939,7 +17003,7 @@
         <v>-10068319.00948385</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -20316,6 +20380,6 @@
       <c r="M586" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest FNB.xlsx
+++ b/BackTest/2020-01-26 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>10453395.97049999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,17 +517,11 @@
         <v>10290613.61489999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.446</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -560,11 +554,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -593,17 +583,11 @@
         <v>9873555.755699994</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.362</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -636,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -673,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -710,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -747,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -784,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -821,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -858,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -891,17 +847,11 @@
         <v>8522981.865399994</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -930,17 +880,11 @@
         <v>8525645.865399994</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -969,17 +913,11 @@
         <v>8525645.865399994</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.291</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1008,17 +946,11 @@
         <v>8526311.865399994</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.291</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1047,17 +979,11 @@
         <v>8527643.865399994</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.292</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1086,17 +1012,11 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1125,17 +1045,11 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1164,17 +1078,11 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1207,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1244,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1277,17 +1177,11 @@
         <v>8581118.721499994</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.346</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1320,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1357,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1394,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1431,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1468,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1505,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1538,15 +1408,11 @@
         <v>8079450.721499994</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1575,15 +1441,11 @@
         <v>8078118.721499994</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1616,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1653,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1690,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1727,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1764,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1801,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1838,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1875,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1912,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1949,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1986,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2023,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2060,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2097,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2171,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2208,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2245,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2282,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2319,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2356,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2393,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2430,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2467,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2504,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2541,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2578,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2615,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2652,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2689,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2726,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2763,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2800,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2837,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2874,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2911,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2948,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2985,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3022,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3059,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3096,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3133,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3170,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3207,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3244,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3281,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3318,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3392,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3429,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3467,12 +3129,10 @@
       <c r="I83" t="n">
         <v>2.299</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="n">
+        <v>2.299</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3501,13 +3161,17 @@
         <v>1054501.20143236</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2.299</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3543,10 +3207,12 @@
       <c r="I85" t="n">
         <v>2.299</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3582,7 +3248,9 @@
       <c r="I86" t="n">
         <v>2.299</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3621,7 +3289,9 @@
       <c r="I87" t="n">
         <v>2.288</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3660,7 +3330,9 @@
       <c r="I88" t="n">
         <v>2.287</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3699,7 +3371,9 @@
       <c r="I89" t="n">
         <v>2.28</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3738,7 +3412,9 @@
       <c r="I90" t="n">
         <v>2.299</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3777,7 +3453,9 @@
       <c r="I91" t="n">
         <v>2.312</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3816,7 +3494,9 @@
       <c r="I92" t="n">
         <v>2.339</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3855,7 +3535,9 @@
       <c r="I93" t="n">
         <v>2.339</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3894,7 +3576,9 @@
       <c r="I94" t="n">
         <v>2.326</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3933,7 +3617,9 @@
       <c r="I95" t="n">
         <v>2.348</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3967,12 +3653,12 @@
         <v>519866.0198323602</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>2.408</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4009,7 +3695,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4046,7 +3734,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4083,7 +3773,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4120,7 +3812,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4157,7 +3851,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4194,7 +3890,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4231,7 +3929,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4268,7 +3968,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4305,7 +4007,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4342,7 +4046,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4379,7 +4085,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4416,7 +4124,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4453,7 +4163,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4490,7 +4202,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4527,7 +4241,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4564,7 +4280,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4601,7 +4319,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4635,10 +4355,14 @@
         <v>-3266912.164475613</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2.332</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4672,10 +4396,14 @@
         <v>-3266912.164475613</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4709,10 +4437,14 @@
         <v>-3632681.941175613</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4746,10 +4478,14 @@
         <v>-3602116.865075612</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2.328</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4783,10 +4519,14 @@
         <v>-4109647.410675612</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4820,10 +4560,14 @@
         <v>-4650750.288875612</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2.324</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4857,10 +4601,14 @@
         <v>-1625519.954175612</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2.322</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4894,10 +4642,14 @@
         <v>-631488.876767639</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4934,7 +4686,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4971,7 +4725,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5008,7 +4764,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5045,7 +4803,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5082,7 +4842,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5119,7 +4881,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5156,7 +4920,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5190,19 +4956,23 @@
         <v>30844195.68053236</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>2.299</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>1.111137451065681</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1.08359133126935</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5227,15 +4997,11 @@
         <v>31626463.48324624</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5264,15 +5030,11 @@
         <v>31626463.48324624</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5301,15 +5063,11 @@
         <v>35232101.29446012</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5338,15 +5096,11 @@
         <v>34103985.297374</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5375,15 +5129,11 @@
         <v>33098567.98188541</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5412,15 +5162,11 @@
         <v>33615857.25538541</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5449,15 +5195,11 @@
         <v>33615857.25538541</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5490,11 +5232,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5527,11 +5265,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5564,11 +5298,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5601,11 +5331,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5638,11 +5364,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5675,11 +5397,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5712,11 +5430,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5749,11 +5463,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5786,11 +5496,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5823,11 +5529,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5860,11 +5562,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5897,11 +5595,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5934,11 +5628,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5971,11 +5661,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6008,11 +5694,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6045,11 +5727,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6078,16 +5756,14 @@
         <v>35003203.2737851</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
       <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
@@ -6113,7 +5789,7 @@
         <v>34851821.7025851</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6146,7 +5822,7 @@
         <v>27741346.51065609</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6179,7 +5855,7 @@
         <v>21148704.10235609</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6212,7 +5888,7 @@
         <v>20416600.18065609</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6245,7 +5921,7 @@
         <v>16290317.29205609</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6311,7 +5987,7 @@
         <v>17163637.13665609</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6443,7 +6119,7 @@
         <v>19198172.2511797</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6476,7 +6152,7 @@
         <v>19198172.2511797</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6509,7 +6185,7 @@
         <v>16671485.4810797</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6542,7 +6218,7 @@
         <v>15236277.26567969</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6575,7 +6251,7 @@
         <v>18258100.13111821</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6608,7 +6284,7 @@
         <v>18068851.37161821</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6641,7 +6317,7 @@
         <v>18068851.37161821</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6674,7 +6350,7 @@
         <v>18008499.2413313</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6707,7 +6383,7 @@
         <v>18006105.6465313</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6740,7 +6416,7 @@
         <v>17940475.9558313</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6773,7 +6449,7 @@
         <v>17940475.9558313</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6839,7 +6515,7 @@
         <v>18408951.6224313</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7103,7 +6779,7 @@
         <v>19214259.76190666</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7136,7 +6812,7 @@
         <v>19079121.62870666</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7169,7 +6845,7 @@
         <v>20514797.58440666</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7202,7 +6878,7 @@
         <v>18604542.58540665</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7235,7 +6911,7 @@
         <v>18751326.92920665</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7268,7 +6944,7 @@
         <v>19471908.23810665</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7301,7 +6977,7 @@
         <v>19291244.12540665</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7334,7 +7010,7 @@
         <v>19406946.87260665</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7367,7 +7043,7 @@
         <v>19928749.83890665</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7400,7 +7076,7 @@
         <v>19928749.83890665</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7433,7 +7109,7 @@
         <v>18346279.63920665</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7466,7 +7142,7 @@
         <v>17516720.03250665</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -10007,7 +9683,7 @@
         <v>19020421.2510853</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10040,7 +9716,7 @@
         <v>20180653.19342989</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10073,7 +9749,7 @@
         <v>21327091.1378853</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10106,7 +9782,7 @@
         <v>17039849.40344071</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10139,7 +9815,7 @@
         <v>12636571.25167169</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10172,7 +9848,7 @@
         <v>12636793.25167169</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10205,7 +9881,7 @@
         <v>4333840.465071694</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10238,7 +9914,7 @@
         <v>4341826.888371694</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10271,7 +9947,7 @@
         <v>4341826.888371694</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10304,7 +9980,7 @@
         <v>4868245.726471694</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10337,7 +10013,7 @@
         <v>4935431.676471694</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10370,7 +10046,7 @@
         <v>5122402.494571694</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10403,7 +10079,7 @@
         <v>4631984.097271694</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10436,7 +10112,7 @@
         <v>4631484.097271694</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10469,7 +10145,7 @@
         <v>4667270.442734439</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10502,7 +10178,7 @@
         <v>4659284.019434439</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10535,7 +10211,7 @@
         <v>4671053.969434439</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10568,7 +10244,7 @@
         <v>4671053.969434439</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10601,7 +10277,7 @@
         <v>4494353.470434439</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10667,7 +10343,7 @@
         <v>4484353.470434439</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10700,7 +10376,7 @@
         <v>4383853.470434439</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10733,7 +10409,7 @@
         <v>5272382.89023444</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10766,7 +10442,7 @@
         <v>5553160.21033444</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10799,7 +10475,7 @@
         <v>6793330.62653444</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10832,7 +10508,7 @@
         <v>6793330.62653444</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10865,7 +10541,7 @@
         <v>7119014.900734439</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10898,7 +10574,7 @@
         <v>7118514.900734439</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10964,7 +10640,7 @@
         <v>6533128.567034439</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11294,7 +10970,7 @@
         <v>2805690.143604329</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11327,7 +11003,7 @@
         <v>2805690.143604329</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11360,7 +11036,7 @@
         <v>2866809.361348479</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11393,7 +11069,7 @@
         <v>2866809.361348479</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11426,7 +11102,7 @@
         <v>2856809.361348479</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11492,7 +11168,7 @@
         <v>2838584.771948479</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11558,7 +11234,7 @@
         <v>809982.1558484791</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11624,7 +11300,7 @@
         <v>809982.1558484791</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11657,7 +11333,7 @@
         <v>-286620.0851515208</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11690,7 +11366,7 @@
         <v>-292467.0851515208</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11723,7 +11399,7 @@
         <v>383124.0079484793</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11756,7 +11432,7 @@
         <v>625532.8199337813</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11987,7 +11663,7 @@
         <v>1162562.230533781</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12020,7 +11696,7 @@
         <v>899123.6359337813</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12185,7 +11861,7 @@
         <v>-2715396.593766219</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12218,7 +11894,7 @@
         <v>-6715396.593766218</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12251,7 +11927,7 @@
         <v>-9385865.013166219</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -15320,11 +14996,17 @@
         <v>-14428859.53730085</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>2.559</v>
+      </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15357,7 +15039,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15390,7 +15076,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15423,7 +15113,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15456,7 +15150,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15489,7 +15187,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15522,7 +15224,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15555,7 +15261,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15588,7 +15298,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15621,7 +15335,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15654,7 +15372,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15687,7 +15409,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15720,7 +15446,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15753,7 +15483,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15786,7 +15520,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15819,7 +15557,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15852,7 +15594,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15885,7 +15631,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15918,7 +15668,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15951,7 +15705,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15984,7 +15742,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16017,7 +15779,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16050,7 +15816,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16079,11 +15849,17 @@
         <v>-21027686.48880085</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>2.57</v>
+      </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16112,11 +15888,17 @@
         <v>-20576822.29390085</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>2.57</v>
+      </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16145,11 +15927,17 @@
         <v>-20388311.63090085</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>2.578</v>
+      </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16182,7 +15970,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16215,7 +16007,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16248,7 +16044,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16281,7 +16081,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16314,7 +16118,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16347,7 +16155,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16380,7 +16192,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16413,7 +16229,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16446,7 +16266,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16479,7 +16303,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16512,7 +16340,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16545,7 +16377,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16578,7 +16414,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16611,7 +16451,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16644,7 +16488,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16677,7 +16525,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16710,7 +16562,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16743,7 +16599,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16776,7 +16636,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16809,7 +16673,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16842,7 +16710,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16875,7 +16747,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16908,7 +16784,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16941,7 +16821,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16974,7 +16858,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17007,7 +16895,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17040,7 +16932,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17073,7 +16969,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17106,7 +17006,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17139,7 +17043,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17172,7 +17080,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17205,7 +17117,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17238,7 +17154,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17271,7 +17191,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17304,7 +17228,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17337,7 +17265,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17370,7 +17302,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17403,7 +17339,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17436,7 +17376,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17469,7 +17413,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17502,7 +17450,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17535,7 +17487,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17568,7 +17524,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17601,7 +17561,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17634,7 +17598,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17667,7 +17635,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17700,7 +17672,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17733,7 +17709,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17766,7 +17746,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17799,7 +17783,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17832,7 +17820,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17865,7 +17857,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17898,7 +17894,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17931,7 +17931,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17964,7 +17968,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17997,7 +18005,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18030,7 +18042,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18063,7 +18079,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18096,7 +18116,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18129,7 +18153,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18162,7 +18190,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18195,7 +18227,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18228,7 +18264,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18261,7 +18301,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18294,7 +18338,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18327,7 +18375,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18360,7 +18412,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18393,7 +18449,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18426,7 +18486,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18459,7 +18523,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18492,7 +18560,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18525,7 +18597,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18558,7 +18634,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18591,7 +18671,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18624,7 +18708,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18657,7 +18745,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18690,7 +18782,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18723,7 +18819,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18756,7 +18856,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18789,7 +18893,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18822,7 +18930,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18855,7 +18967,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18888,7 +19004,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18921,7 +19041,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18954,7 +19078,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18987,7 +19115,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19020,7 +19152,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19053,7 +19189,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19086,7 +19226,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19119,7 +19263,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19152,7 +19300,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19185,7 +19337,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19218,7 +19374,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19251,7 +19411,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19284,7 +19448,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19317,7 +19485,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19350,7 +19522,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19383,7 +19559,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19416,7 +19596,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19449,7 +19633,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19482,7 +19670,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19515,7 +19707,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19548,7 +19744,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19581,7 +19781,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19614,7 +19818,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19647,7 +19855,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19680,7 +19892,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19713,7 +19929,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19746,7 +19966,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19779,7 +20003,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19812,7 +20040,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19841,11 +20073,17 @@
         <v>-21778367.16858385</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>2.52</v>
+      </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19878,7 +20116,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19911,7 +20153,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19944,7 +20190,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19977,7 +20227,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20010,7 +20264,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20043,7 +20301,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20076,7 +20338,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20105,11 +20371,17 @@
         <v>-37714150.99508385</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>2.484</v>
+      </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20138,11 +20410,17 @@
         <v>-37723026.63008384</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>2.516</v>
+      </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20175,7 +20453,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20204,11 +20486,17 @@
         <v>-37723026.63008384</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>2.5</v>
+      </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20237,11 +20525,17 @@
         <v>-36868340.04767278</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>2.5</v>
+      </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20270,11 +20564,17 @@
         <v>-36868340.04767278</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>2.513</v>
+      </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20307,7 +20607,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20336,11 +20640,17 @@
         <v>-36939930.30347278</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>2.54</v>
+      </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20369,17 +20679,23 @@
         <v>-36939930.30347278</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>2.51</v>
+      </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
       <c r="M586" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest FNB.xlsx
+++ b/BackTest/2020-01-26 BackTest FNB.xlsx
@@ -451,7 +451,7 @@
         <v>9661293.996399993</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>10453395.97049999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.383</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,15 @@
         <v>10290613.61489999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +560,17 @@
         <v>9812703.265699994</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.4</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +599,17 @@
         <v>9873555.755699994</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.362</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +638,17 @@
         <v>9873555.755699994</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.38</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +677,17 @@
         <v>9881919.379599994</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.38</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +716,17 @@
         <v>8453257.582199994</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.389</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +755,17 @@
         <v>8453471.348799994</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.261</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +794,17 @@
         <v>8448140.348799994</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.339</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +833,17 @@
         <v>8495318.865399994</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.271</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +872,17 @@
         <v>8511983.865399994</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.278</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +911,17 @@
         <v>8522981.865399994</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.28</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +950,17 @@
         <v>8525645.865399994</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.29</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +989,17 @@
         <v>8525645.865399994</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.291</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1028,17 @@
         <v>8526311.865399994</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.291</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1067,17 @@
         <v>8527643.865399994</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.292</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1106,17 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.293</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1145,17 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.346</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1184,17 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.346</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1223,17 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.346</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1262,17 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.346</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1301,15 @@
         <v>8581118.721499994</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1342,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1379,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1416,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1453,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1490,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1527,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1560,15 @@
         <v>8079450.721499994</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1597,15 @@
         <v>8078118.721499994</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1638,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1675,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1712,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1749,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1786,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1823,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1860,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1897,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1934,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1971,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +2008,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2045,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2082,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2119,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2156,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2193,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2230,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2267,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2304,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2341,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2378,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2415,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2452,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2489,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2526,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2563,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2600,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2637,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2674,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2711,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2748,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2785,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2822,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2859,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2896,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2933,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2970,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +3007,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3044,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3081,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3118,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3155,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3192,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3229,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3266,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3303,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3340,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3377,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3414,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3451,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,15 +3484,15 @@
         <v>1054501.20143236</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2.299</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2.299</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,17 +3521,13 @@
         <v>1054501.20143236</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2.299</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3202,17 +3558,13 @@
         <v>1054501.20143236</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2.299</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3243,14 +3595,10 @@
         <v>1015752.27373236</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2.299</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3284,14 +3632,10 @@
         <v>893489.8413323603</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>2.288</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3325,14 +3669,10 @@
         <v>815801.4683323603</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2.287</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3366,14 +3706,10 @@
         <v>816215.5830323603</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3407,14 +3743,10 @@
         <v>916624.7142323602</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2.299</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3448,14 +3780,10 @@
         <v>1060498.47123236</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2.312</v>
-      </c>
-      <c r="J91" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3489,14 +3817,10 @@
         <v>1060498.47123236</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2.339</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3530,14 +3854,10 @@
         <v>310498.4712323602</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2.339</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3571,14 +3891,10 @@
         <v>555581.5397323603</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2.326</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3612,14 +3928,10 @@
         <v>1146975.23413236</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2.348</v>
-      </c>
-      <c r="J95" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3656,9 +3968,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3695,9 +4005,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3734,9 +4042,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3773,9 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3812,9 +4116,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3851,9 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3890,9 +4190,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3929,9 +4227,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3968,9 +4264,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4007,9 +4301,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4046,9 +4338,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4085,9 +4375,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4124,9 +4412,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4163,9 +4449,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4202,9 +4486,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4241,9 +4523,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4280,9 +4560,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4319,9 +4597,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4355,14 +4631,10 @@
         <v>-3266912.164475613</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>2.332</v>
-      </c>
-      <c r="J114" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4396,14 +4668,10 @@
         <v>-3266912.164475613</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="J115" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4437,14 +4705,10 @@
         <v>-3632681.941175613</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="J116" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4478,14 +4742,10 @@
         <v>-3602116.865075612</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>2.328</v>
-      </c>
-      <c r="J117" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4519,14 +4779,10 @@
         <v>-4109647.410675612</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="J118" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4560,14 +4816,10 @@
         <v>-4650750.288875612</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>2.324</v>
-      </c>
-      <c r="J119" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4601,14 +4853,10 @@
         <v>-1625519.954175612</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>2.322</v>
-      </c>
-      <c r="J120" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4642,14 +4890,10 @@
         <v>-631488.876767639</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="J121" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4686,9 +4930,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4725,9 +4967,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4764,9 +5004,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4803,9 +5041,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4842,9 +5078,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4881,9 +5115,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4920,9 +5152,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4956,23 +5186,19 @@
         <v>30844195.68053236</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>2.299</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.111137451065681</v>
-      </c>
-      <c r="M129" t="n">
-        <v>1.08359133126935</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4997,11 +5223,15 @@
         <v>31626463.48324624</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5030,11 +5260,15 @@
         <v>31626463.48324624</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5063,11 +5297,15 @@
         <v>35232101.29446012</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5096,11 +5334,15 @@
         <v>34103985.297374</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5129,11 +5371,15 @@
         <v>33098567.98188541</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5162,11 +5408,15 @@
         <v>33615857.25538541</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5195,11 +5445,15 @@
         <v>33615857.25538541</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5232,7 +5486,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5265,7 +5523,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5298,7 +5560,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5331,7 +5597,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5364,7 +5634,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5397,7 +5671,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5430,7 +5708,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5463,7 +5745,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5496,7 +5782,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5529,7 +5819,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5562,7 +5856,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5595,7 +5893,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5624,14 +5926,16 @@
         <v>40624757.69598509</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
@@ -5657,7 +5961,7 @@
         <v>41199885.9896851</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5690,7 +5994,7 @@
         <v>41199885.9896851</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5723,7 +6027,7 @@
         <v>37891752.2582851</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5756,7 +6060,7 @@
         <v>35003203.2737851</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5789,7 +6093,7 @@
         <v>34851821.7025851</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5822,7 +6126,7 @@
         <v>27741346.51065609</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5855,7 +6159,7 @@
         <v>21148704.10235609</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5888,7 +6192,7 @@
         <v>20416600.18065609</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5954,7 +6258,7 @@
         <v>17161806.32505609</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6020,7 +6324,7 @@
         <v>15793008.73075609</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6053,7 +6357,7 @@
         <v>15897756.08475609</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6086,7 +6390,7 @@
         <v>16570855.47765609</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6284,7 +6588,7 @@
         <v>18068851.37161821</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6317,7 +6621,7 @@
         <v>18068851.37161821</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6350,7 +6654,7 @@
         <v>18008499.2413313</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6383,7 +6687,7 @@
         <v>18006105.6465313</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -13940,10 +14244,14 @@
         <v>-10987806.42530069</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="J401" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
@@ -13976,8 +14284,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14006,11 +14320,19 @@
         <v>-12193992.68860069</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J403" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14039,11 +14361,19 @@
         <v>-12213552.02550069</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>2.557</v>
+      </c>
+      <c r="J404" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14072,11 +14402,19 @@
         <v>-12213552.02550069</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>2.556</v>
+      </c>
+      <c r="J405" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14105,11 +14443,19 @@
         <v>-12213552.02550069</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>2.556</v>
+      </c>
+      <c r="J406" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14138,11 +14484,19 @@
         <v>-12221456.74150069</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>2.556</v>
+      </c>
+      <c r="J407" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14171,11 +14525,19 @@
         <v>-12221456.74150069</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J408" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14204,11 +14566,19 @@
         <v>-12282405.22600069</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J409" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14237,11 +14607,19 @@
         <v>-12282405.22600069</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>2.524</v>
+      </c>
+      <c r="J410" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14270,11 +14648,19 @@
         <v>-12282405.22600069</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>2.524</v>
+      </c>
+      <c r="J411" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14303,11 +14689,19 @@
         <v>-13013692.41790069</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>2.524</v>
+      </c>
+      <c r="J412" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14336,11 +14730,19 @@
         <v>-12935943.20010069</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="J413" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14369,11 +14771,19 @@
         <v>-12877858.02380085</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>2.524</v>
+      </c>
+      <c r="J414" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14402,11 +14812,19 @@
         <v>-12983464.55340085</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>2.556</v>
+      </c>
+      <c r="J415" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14435,11 +14853,19 @@
         <v>-14181481.77050085</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="J416" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14468,11 +14894,19 @@
         <v>-15250908.49160085</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="J417" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14501,11 +14935,19 @@
         <v>-14704835.91120085</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>2.514</v>
+      </c>
+      <c r="J418" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14534,11 +14976,19 @@
         <v>-15747452.35840085</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>2.515</v>
+      </c>
+      <c r="J419" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14567,11 +15017,19 @@
         <v>-16993929.71690085</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>2.501</v>
+      </c>
+      <c r="J420" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14600,11 +15058,19 @@
         <v>-16993929.71690085</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="J421" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14633,11 +15099,19 @@
         <v>-16993929.71690085</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="J422" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14666,11 +15140,19 @@
         <v>-17371239.74920085</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="J423" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14699,11 +15181,19 @@
         <v>-17075139.38570085</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>2.485</v>
+      </c>
+      <c r="J424" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14732,11 +15222,19 @@
         <v>-17075139.38570085</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="J425" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14765,11 +15263,19 @@
         <v>-17659186.45720085</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="J426" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14798,11 +15304,19 @@
         <v>-17659186.45720085</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>2.482</v>
+      </c>
+      <c r="J427" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14831,11 +15345,19 @@
         <v>-17601415.42000085</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>2.482</v>
+      </c>
+      <c r="J428" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14864,11 +15386,19 @@
         <v>-17571556.29760085</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="J429" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14897,11 +15427,19 @@
         <v>-16350164.55830085</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J430" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14930,11 +15468,19 @@
         <v>-16171884.36140085</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J431" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14963,11 +15509,19 @@
         <v>-15961674.31800085</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>2.555</v>
+      </c>
+      <c r="J432" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15001,10 +15555,12 @@
       <c r="I433" t="n">
         <v>2.559</v>
       </c>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L433" t="n">
@@ -15035,10 +15591,14 @@
         <v>-14429859.53730085</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J434" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15072,10 +15632,14 @@
         <v>-14429859.53730085</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>2.578</v>
+      </c>
+      <c r="J435" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15109,10 +15673,14 @@
         <v>-14320709.32840084</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>2.578</v>
+      </c>
+      <c r="J436" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15149,7 +15717,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15186,7 +15756,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15223,7 +15795,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15260,7 +15834,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15294,10 +15870,14 @@
         <v>-19513128.68000085</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J441" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15331,10 +15911,14 @@
         <v>-19510506.63410085</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="J442" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15368,10 +15952,14 @@
         <v>-20965390.51850085</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J443" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15405,10 +15993,14 @@
         <v>-20965390.51850085</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>2.485</v>
+      </c>
+      <c r="J444" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15442,10 +16034,14 @@
         <v>-20754105.05860085</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>2.485</v>
+      </c>
+      <c r="J445" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15479,10 +16075,14 @@
         <v>-20754105.05860085</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>2.521</v>
+      </c>
+      <c r="J446" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15516,10 +16116,14 @@
         <v>-20829105.05860085</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>2.521</v>
+      </c>
+      <c r="J447" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15553,10 +16157,14 @@
         <v>-20167676.38680085</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>2.518</v>
+      </c>
+      <c r="J448" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15590,10 +16198,14 @@
         <v>-20030301.61020085</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>2.521</v>
+      </c>
+      <c r="J449" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15627,10 +16239,14 @@
         <v>-20452167.09300085</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>2.565</v>
+      </c>
+      <c r="J450" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15664,10 +16280,14 @@
         <v>-20452167.09300085</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J451" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15701,10 +16321,14 @@
         <v>-20849222.68200085</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J452" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15738,10 +16362,14 @@
         <v>-20849222.68200085</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>2.551</v>
+      </c>
+      <c r="J453" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15775,10 +16403,14 @@
         <v>-20601576.48880085</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>2.551</v>
+      </c>
+      <c r="J454" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15815,7 +16447,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15849,12 +16483,12 @@
         <v>-21027686.48880085</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J456" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15888,12 +16522,12 @@
         <v>-20576822.29390085</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J457" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15927,12 +16561,12 @@
         <v>-20388311.63090085</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>2.578</v>
-      </c>
-      <c r="J458" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15969,7 +16603,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16003,10 +16639,14 @@
         <v>-18289180.08640085</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>2.588</v>
+      </c>
+      <c r="J460" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16040,10 +16680,14 @@
         <v>-18289180.08640085</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J461" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16077,10 +16721,14 @@
         <v>-18289698.94380085</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J462" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16117,7 +16765,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16151,10 +16801,14 @@
         <v>-18405980.17080085</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>2.588</v>
+      </c>
+      <c r="J464" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16188,10 +16842,14 @@
         <v>-18484016.95520085</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>2.575</v>
+      </c>
+      <c r="J465" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16225,10 +16883,14 @@
         <v>-17229598.11940086</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>2.561</v>
+      </c>
+      <c r="J466" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16262,10 +16924,14 @@
         <v>-17119598.11940086</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J467" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16299,10 +16965,14 @@
         <v>-18283764.50890085</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>2.588</v>
+      </c>
+      <c r="J468" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16336,10 +17006,14 @@
         <v>-18271987.32730085</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>2.563</v>
+      </c>
+      <c r="J469" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16373,10 +17047,14 @@
         <v>-17373984.23700085</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J470" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16410,10 +17088,14 @@
         <v>-16651803.91710085</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J471" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16447,10 +17129,14 @@
         <v>-12962945.65107768</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>2.598</v>
+      </c>
+      <c r="J472" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16484,10 +17170,14 @@
         <v>-12543779.5632167</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J473" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16521,10 +17211,14 @@
         <v>-12998701.25821671</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="J474" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16561,7 +17255,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16598,7 +17294,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16635,7 +17333,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16672,7 +17372,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16709,7 +17411,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16746,7 +17450,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16783,7 +17489,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16820,7 +17528,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16857,7 +17567,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16894,7 +17606,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16931,7 +17645,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16968,7 +17684,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17005,7 +17723,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17042,7 +17762,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17079,7 +17801,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17116,7 +17840,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17153,7 +17879,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17190,7 +17918,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17227,7 +17957,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17264,7 +17996,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17301,7 +18035,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17338,7 +18074,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17372,10 +18110,14 @@
         <v>-12757823.88998385</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>2.562</v>
+      </c>
+      <c r="J497" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17409,10 +18151,14 @@
         <v>-12727887.35638385</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>2.563</v>
+      </c>
+      <c r="J498" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17446,10 +18192,14 @@
         <v>-12587398.64858384</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J499" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17483,10 +18233,14 @@
         <v>-12587398.64858384</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>2.571</v>
+      </c>
+      <c r="J500" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17520,10 +18274,14 @@
         <v>-12587398.64858384</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>2.571</v>
+      </c>
+      <c r="J501" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17557,10 +18315,14 @@
         <v>-9650239.332583845</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>2.571</v>
+      </c>
+      <c r="J502" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17597,7 +18359,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17634,7 +18398,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17671,7 +18437,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17708,7 +18476,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17745,7 +18515,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17782,7 +18554,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17819,7 +18593,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17856,7 +18632,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17893,7 +18671,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17930,7 +18710,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17967,7 +18749,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18004,7 +18788,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18041,7 +18827,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18078,7 +18866,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18115,7 +18905,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18152,7 +18944,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18189,7 +18983,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18226,7 +19022,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18263,7 +19061,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18300,7 +19100,9 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18337,7 +19139,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18374,7 +19178,9 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18411,7 +19217,9 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18448,7 +19256,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18485,7 +19295,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18522,7 +19334,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18559,7 +19373,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18596,7 +19412,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18633,7 +19451,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18670,7 +19490,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18707,7 +19529,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18744,7 +19568,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18781,7 +19607,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18818,7 +19646,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18855,7 +19685,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18892,7 +19724,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18929,7 +19763,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18966,7 +19802,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19003,7 +19841,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19040,7 +19880,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19077,7 +19919,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19114,7 +19958,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19151,7 +19997,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19188,7 +20036,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19225,7 +20075,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19262,7 +20114,9 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19299,7 +20153,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19336,7 +20192,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19373,7 +20231,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19410,7 +20270,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19447,7 +20309,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19484,7 +20348,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19521,7 +20387,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19558,7 +20426,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19595,7 +20465,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19632,7 +20504,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19669,7 +20543,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19706,7 +20582,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19743,7 +20621,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19780,7 +20660,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19817,7 +20699,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19854,7 +20738,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19891,7 +20777,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19928,7 +20816,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19965,7 +20855,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20002,7 +20894,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20039,7 +20933,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20073,12 +20969,12 @@
         <v>-21778367.16858385</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J570" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20115,7 +21011,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20152,7 +21050,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20189,7 +21089,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20226,7 +21128,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20263,7 +21167,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20300,7 +21206,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20337,7 +21245,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20371,12 +21281,12 @@
         <v>-37714150.99508385</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>2.484</v>
-      </c>
-      <c r="J578" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20410,12 +21320,12 @@
         <v>-37723026.63008384</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>2.516</v>
-      </c>
-      <c r="J579" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20452,7 +21362,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20486,12 +21398,12 @@
         <v>-37723026.63008384</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J581" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20530,7 +21442,9 @@
       <c r="I582" t="n">
         <v>2.5</v>
       </c>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20569,7 +21483,9 @@
       <c r="I583" t="n">
         <v>2.513</v>
       </c>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20603,10 +21519,14 @@
         <v>-36847262.92347278</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>2.513</v>
+      </c>
+      <c r="J584" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20640,12 +21560,12 @@
         <v>-36939930.30347278</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J585" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20684,7 +21604,9 @@
       <c r="I586" t="n">
         <v>2.51</v>
       </c>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>2.542</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
